--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T16:07:23+00:00</t>
+    <t>2023-04-20T16:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-20T16:41:31+00:00</t>
+    <t>2023-04-21T12:14:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-researchstudy</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-researchstudy</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:14:45+00:00</t>
+    <t>2023-04-21T15:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Kind</t>
@@ -251,7 +251,7 @@
     <t>Investigation to increase healthcare-related patient-independent knowledge</t>
   </si>
   <si>
-    <t>A process where a researcher or organization plans and then executes a series of steps intended to increase the field of healthcare-related knowledge.  This includes studies of safety, efficacy, comparative effectiveness and other information about medications, devices, therapies and other interventional and investigative techniques.  A ResearchStudy involves the gathering of information about human or animal subjects.</t>
+    <t>A scientific study of nature that sometimes includes processes involved in health and disease. For example, clinical trials are research studies that involve people. These studies may be related to new ways to screen, prevent, diagnose, and treat disease. They may also study certain outcomes and certain groups of people by looking at data collected in the past or future.</t>
   </si>
   <si>
     <t>Need to make sure we encompass public health studies.</t>
@@ -276,7 +276,7 @@
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
   </si>
   <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -298,190 +298,294 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ResearchStudy.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of its narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ResearchStudy.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>IETF language tag for a human language</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/all-languages|5.0.0</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ResearchStudy.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have a narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-6
+</t>
+  </si>
+  <si>
+    <t>ResearchStudy.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, nor can they have their own independent transaction scope. This is allowed to be a Parameters resource if and only if it is referenced by a resource that provides context/meaning.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags in their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>dom-2
+dom-4dom-3dom-5</t>
+  </si>
+  <si>
+    <t>ResearchStudy.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ResearchStudy.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R5/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this study resource</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this study resource, represented as a globally unique URI.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiant de l'essai clinique</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this research study by the sponsor or other systems.</t>
+  </si>
+  <si>
+    <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>The business version for the study record</t>
+  </si>
+  <si>
+    <t>The business version for the study record.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.name</t>
+  </si>
+  <si>
+    <t>Name for this study (computer friendly)</t>
+  </si>
+  <si>
+    <t>Name for this study (computer friendly).</t>
+  </si>
+  <si>
+    <t>ResearchStudy.title</t>
+  </si>
+  <si>
+    <t>Human readable name of the study</t>
+  </si>
+  <si>
+    <t>The human readable name of the research study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Additional names for the study</t>
+  </si>
+  <si>
+    <t>Additional names for the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.label.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ResearchStudy.label.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.label.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.label.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>ResearchStudy.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ResearchStudy.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ResearchStudy.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>ResearchStudy.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>ResearchStudy.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ResearchStudy.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiant de l'essai clinique</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this research study by the sponsor or other systems.</t>
-  </si>
-  <si>
-    <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Name for this study</t>
-  </si>
-  <si>
-    <t>A short, descriptive user-friendly label for the study.</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+    <t>primary | official | scientific | plain-language | subtitle | short-title | acronym | earlier-title | language | auto-translated | human-use | machine-use | duplicate-uid</t>
+  </si>
+  <si>
+    <t>Kind of name.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>desc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/title-type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.label.value</t>
+  </si>
+  <si>
+    <t>The name</t>
+  </si>
+  <si>
+    <t>The name.</t>
   </si>
   <si>
     <t>ResearchStudy.protocol</t>
@@ -497,13 +601,6 @@
     <t>The set of steps expected to be performed as part of the execution of the study.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>ResearchStudy.partOf</t>
   </si>
   <si>
@@ -524,119 +621,6 @@
     <t>Allows breaking a study into components (e.g. by study site) each with their own PI, status, enrollment, etc.</t>
   </si>
   <si>
-    <t>ResearchStudy.status</t>
-  </si>
-  <si>
-    <t>active | administratively-completed | approved | closed-to-accrual | closed-to-accrual-and-intervention | completed | disapproved | in-review | temporarily-closed-to-accrual | temporarily-closed-to-accrual-and-intervention | withdrawn</t>
-  </si>
-  <si>
-    <t>The current state of the study.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes that convey the current status of the research study.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.0.1</t>
-  </si>
-  <si>
-    <t>ResearchStudy.primaryPurposeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
-  </si>
-  <si>
-    <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Codes for the main intent of the study.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-prim-purp-type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.phase</t>
-  </si>
-  <si>
-    <t>n-a | early-phase-1 | phase-1 | phase-1-phase-2 | phase-2 | phase-2-phase-3 | phase-3 | phase-4</t>
-  </si>
-  <si>
-    <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for the stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-phase</t>
-  </si>
-  <si>
-    <t>ResearchStudy.category</t>
-  </si>
-  <si>
-    <t>Classifications for the study</t>
-  </si>
-  <si>
-    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
-  </si>
-  <si>
-    <t>Codes that describe the type of research study.  E.g. Study phase, Interventional/Observational, blinding type, etc.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.focus</t>
-  </si>
-  <si>
-    <t>Drugs, devices, etc. under study</t>
-  </si>
-  <si>
-    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
-  </si>
-  <si>
-    <t>Codes for medications, devices and other interventions.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition</t>
-  </si>
-  <si>
-    <t>Condition being studied</t>
-  </si>
-  <si>
-    <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t>ResearchStudy.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactDetail
-</t>
-  </si>
-  <si>
-    <t>Contact details for the study</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in learning more about or engaging with the study.</t>
-  </si>
-  <si>
     <t>ResearchStudy.relatedArtifact</t>
   </si>
   <si>
@@ -644,13 +628,123 @@
 </t>
   </si>
   <si>
-    <t>References and dependencies</t>
-  </si>
-  <si>
-    <t>Citations, references and other related documents.</t>
-  </si>
-  <si>
-    <t>Each related artifact is either an attachment, or a reference to another knowledge resource, but not both.</t>
+    <t>References, URLs, and attachments</t>
+  </si>
+  <si>
+    <t>Citations, references, URLs and other related documents.  When using relatedArtifact to share URLs, the relatedArtifact.type will often be set to one of "documentation" or "supported-with" and the URL value will often be in relatedArtifact.document.url but another possible location is relatedArtifact.resource when it is a canonical URL.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date the resource last changed</t>
+  </si>
+  <si>
+    <t>The date (and optionally time) when the ResearchStudy Resource was last significantly changed. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the ResearchStudy Resource changes.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The publication state of the resource (not of the study).</t>
+  </si>
+  <si>
+    <t>Codes that convey the current publication status of the research study resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
+  </si>
+  <si>
+    <t>ResearchStudy.primaryPurposeType</t>
+  </si>
+  <si>
+    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
+  </si>
+  <si>
+    <t>The type of study based upon the intent of the study activities. A classification of the intent of the study.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for the main intent of the study.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-prim-purp-type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.phase</t>
+  </si>
+  <si>
+    <t>n-a | early-phase-1 | phase-1 | phase-1-phase-2 | phase-2 | phase-2-phase-3 | phase-3 | phase-4</t>
+  </si>
+  <si>
+    <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for the stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-phase</t>
+  </si>
+  <si>
+    <t>ResearchStudy.studyDesign</t>
+  </si>
+  <si>
+    <t>Classifications of the study design characteristics</t>
+  </si>
+  <si>
+    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
+  </si>
+  <si>
+    <t>This is a set of terms for study design characteristics.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/study-design</t>
+  </si>
+  <si>
+    <t>ResearchStudy.focus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableReference(Medication|MedicinalProductDefinition|SubstanceDefinition|EvidenceVariable)
+</t>
+  </si>
+  <si>
+    <t>Drugs, devices, etc. under study</t>
+  </si>
+  <si>
+    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
+  </si>
+  <si>
+    <t>Common codes of research study focus</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-focus-type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition</t>
+  </si>
+  <si>
+    <t>Condition being studied</t>
+  </si>
+  <si>
+    <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
+  </si>
+  <si>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
     <t>ResearchStudy.keyword</t>
@@ -665,13 +759,13 @@
     <t>Words associated with the study that may be useful in discovery.</t>
   </si>
   <si>
-    <t>ResearchStudy.location</t>
-  </si>
-  <si>
-    <t>Geographic region(s) for study</t>
-  </si>
-  <si>
-    <t>Indicates a country, state or other region where the study is taking place.</t>
+    <t>ResearchStudy.region</t>
+  </si>
+  <si>
+    <t>Geographic area for the study</t>
+  </si>
+  <si>
+    <t>A country, state or other area where the study is taking place rather than its precise geographic location or address.</t>
   </si>
   <si>
     <t>Countries and regions within which this artifact is targeted for use.</t>
@@ -680,255 +774,515 @@
     <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
   </si>
   <si>
-    <t>ResearchStudy.description</t>
+    <t>ResearchStudy.descriptionSummary</t>
   </si>
   <si>
     <t xml:space="preserve">markdown
 </t>
   </si>
   <si>
-    <t>What this is study doing</t>
-  </si>
-  <si>
-    <t>A full description of how the study is being conducted.</t>
-  </si>
-  <si>
-    <t>Systems are not required to have markdown support, so the text should be readable without markdown processing. The markdown syntax is GFM - see https://github.github.com/gfm/</t>
-  </si>
-  <si>
-    <t>ResearchStudy.enrollment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patient
+    <t>Brief text explaining the study</t>
+  </si>
+  <si>
+    <t>A brief text for explaining the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.description</t>
+  </si>
+  <si>
+    <t>Detailed narrative of the study</t>
+  </si>
+  <si>
+    <t>A detailed and human-readable narrative of the study. E.g., study abstract.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timing
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the study began and ended</t>
+  </si>
+  <si>
+    <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|ResearchStudy|Organization)
+</t>
+  </si>
+  <si>
+    <t>Facility where study activities are conducted</t>
+  </si>
+  <si>
+    <t>A facility in which study activities are conducted.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation
+</t>
+  </si>
+  <si>
+    <t>Comments made about the study</t>
+  </si>
+  <si>
+    <t>Comments made about the study by the performer, subject or other participants.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.classifier</t>
+  </si>
+  <si>
+    <t>Classification for the study</t>
+  </si>
+  <si>
+    <t>Additional grouping mechanism or categorization of a research study. Example: FDA regulated device, FDA regulated drug, MPG Paragraph 23b (a German legal requirement), IRB-exempt, etc. Implementation Note: do not use the classifier element to support existing semantics that are already supported thru explicit elements in the resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-classifiers</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty</t>
+  </si>
+  <si>
+    <t>Sponsors, collaborators, and other parties</t>
+  </si>
+  <si>
+    <t>Sponsors, collaborators, and other parties.</t>
+  </si>
+  <si>
+    <t>For a Sponsor or a PrincipalInvestigator use the dedicated attributes provided.</t>
+  </si>
+  <si>
+    <t>While there are explicit attributes for a Sponsor and a PrincipalInvestigator many trial record a range of other organizations and individuals in key roles.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.name</t>
+  </si>
+  <si>
+    <t>Name of associated party</t>
+  </si>
+  <si>
+    <t>Name of associated party.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.role</t>
+  </si>
+  <si>
+    <t>sponsor | lead-sponsor | sponsor-investigator | primary-investigator | collaborator | funding-source | general-contact | recruitment-contact | sub-investigator | study-director | study-chair</t>
+  </si>
+  <si>
+    <t>Type of association.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-party-role</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.period</t>
+  </si>
+  <si>
+    <t>When active in the role</t>
+  </si>
+  <si>
+    <t>Identifies the start date and the end date of the associated party in the role.</t>
+  </si>
+  <si>
+    <t>The cardinality is 0..* due to the fact that an associated party may be intermittently active in a given role over multiple time periods.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.classifier</t>
+  </si>
+  <si>
+    <t>nih | fda | government | nonprofit | academic | industry</t>
+  </si>
+  <si>
+    <t>A categorization other than role for the associated party.</t>
+  </si>
+  <si>
+    <t>A characterization or type of the entity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-party-organization-type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.associatedParty.party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+</t>
+  </si>
+  <si>
+    <t>Individual or organization associated with study (use practitionerRole to specify their organisation)</t>
+  </si>
+  <si>
+    <t>Individual or organization associated with study (use practitionerRole to specify their organisation).</t>
+  </si>
+  <si>
+    <t>Suggestions of a better attribute name are appreciated</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus</t>
+  </si>
+  <si>
+    <t>Status of study with time for that status</t>
+  </si>
+  <si>
+    <t>Status of study with time for that status.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus.state</t>
+  </si>
+  <si>
+    <t>Label for status or state (e.g. recruitment status)</t>
+  </si>
+  <si>
+    <t>Label for status or state (e.g. recruitment status).</t>
+  </si>
+  <si>
+    <t>defn.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-status</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus.actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Actual if true else anticipated</t>
+  </si>
+  <si>
+    <t>An indication of whether or not the date is a known date when the state changed or will change. A value of true indicates a known date. A value of false indicates an estimated date.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.progressStatus.period</t>
+  </si>
+  <si>
+    <t>Date range</t>
+  </si>
+  <si>
+    <t>Date range.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.whyStopped</t>
+  </si>
+  <si>
+    <t>accrual-goal-met | closed-due-to-toxicity | closed-due-to-lack-of-study-progress | temporarily-closed-per-study-design</t>
+  </si>
+  <si>
+    <t>A description and/or code explaining the premature termination of the study.</t>
+  </si>
+  <si>
+    <t>Codes for why the study ended prematurely.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-reason-stopped</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment</t>
+  </si>
+  <si>
+    <t>Target or actual group of participants enrolled in study</t>
+  </si>
+  <si>
+    <t>Target or actual group of participants enrolled in study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment.targetNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Estimated total number of participants to be enrolled</t>
+  </si>
+  <si>
+    <t>Estimated total number of participants to be enrolled.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment.actualNumber</t>
+  </si>
+  <si>
+    <t>Actual total number of participants enrolled in study</t>
+  </si>
+  <si>
+    <t>Actual total number of participants enrolled in study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment.eligibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Group|EvidenceVariable)
+</t>
+  </si>
+  <si>
+    <t>Inclusion and exclusion criteria</t>
+  </si>
+  <si>
+    <t>Inclusion and exclusion criteria.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.recruitment.actualGroup</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Group)
 </t>
   </si>
   <si>
-    <t>Inclusion &amp; exclusion criteria</t>
-  </si>
-  <si>
-    <t>Reference to a Group that defines the criteria for and quantity of subjects participating in the study.  E.g. " 200 female Europeans between the ages of 20 and 45 with early onset diabetes".</t>
-  </si>
-  <si>
-    <t>The Group referenced should not generally enumerate specific subjects.  Subjects will be linked to the study using the ResearchSubject resource.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timing
+    <t>Group of participants who were enrolled in study</t>
+  </si>
+  <si>
+    <t>Group of participants who were enrolled in study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arm
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t>Defined path through the study for a subject</t>
+  </si>
+  <si>
+    <t>Describes an expected event or sequence of events for one of the subjects of a study. E.g. for a living subject: exposure to drug A, wash-out, exposure to drug B, wash-out, follow-up. E.g. for a stability study: {store sample from lot A at 25 degrees for 1 month}, {store sample from lot A at 40 degrees for 1 month}.</t>
+  </si>
+  <si>
+    <t>In many clinical trials this is refered to as the ARM of the study, but such a term is not used in other sorts of trials even when there is a comparison between two or more groups.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.linkId</t>
+  </si>
+  <si>
+    <t>Allows the comparisonGroup for the study and the comparisonGroup for the subject to be linked easily</t>
+  </si>
+  <si>
+    <t>Allows the comparisonGroup for the study and the comparisonGroup for the subject to be linked easily.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.name</t>
+  </si>
+  <si>
+    <t>Label for study comparisonGroup</t>
+  </si>
+  <si>
+    <t>Unique, human-readable label for this comparisonGroup of the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.type</t>
+  </si>
+  <si>
+    <t>Categorization of study comparisonGroup</t>
+  </si>
+  <si>
+    <t>Categorization of study comparisonGroup, e.g. experimental, active comparator, placebo comparater.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-arm-type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.description</t>
+  </si>
+  <si>
+    <t>Short explanation of study path</t>
+  </si>
+  <si>
+    <t>A succinct description of the path through the study that would be followed by a subject adhering to this comparisonGroup.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.intendedExposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(EvidenceVariable)
 </t>
   </si>
   <si>
-    <t>When the study began and ended</t>
-  </si>
-  <si>
-    <t>Identifies the start date and the expected (or actual, depending on status) end date for the study.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>ResearchStudy.sponsor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t>Interventions or exposures in this comparisonGroup or cohort</t>
+  </si>
+  <si>
+    <t>Interventions or exposures in this comparisonGroup or cohort.</t>
+  </si>
+  <si>
+    <t>this is necessary for ClinicalTrials.gov use which relates  1 to many interventions to comparisonGroups (aka arms)</t>
+  </si>
+  <si>
+    <t>ResearchStudy.comparisonGroup.observedGroup</t>
+  </si>
+  <si>
+    <t>Group of participants who were enrolled in study comparisonGroup</t>
+  </si>
+  <si>
+    <t>Group of participants who were enrolled in study comparisonGroup.</t>
+  </si>
+  <si>
+    <t>This is necessary to relate comparisonGroups to actual groups</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective</t>
+  </si>
+  <si>
+    <t>A goal for the study</t>
+  </si>
+  <si>
+    <t>A goal that the study is aiming to achieve in terms of a scientific question to be answered by the analysis of data collected during the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.name</t>
+  </si>
+  <si>
+    <t>Label for the objective</t>
+  </si>
+  <si>
+    <t>Unique, human-readable label for this objective of the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.type</t>
+  </si>
+  <si>
+    <t>primary | secondary | exploratory</t>
+  </si>
+  <si>
+    <t>The kind of study objective.</t>
+  </si>
+  <si>
+    <t>Codes for the kind of study objective.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.objective.description</t>
+  </si>
+  <si>
+    <t>Description of the objective</t>
+  </si>
+  <si>
+    <t>Free text description of the objective of the study.  This is what the study is trying to achieve rather than how it is going to achieve it (see ResearchStudy.description).</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure</t>
+  </si>
+  <si>
+    <t>A variable measured during the study</t>
+  </si>
+  <si>
+    <t>An "outcome measure", "endpoint", "effect measure" or "measure of effect" is a specific measurement or observation used to quantify the effect of experimental variables on the participants in a study, or for observational studies, to describe patterns of diseases or traits or associations with exposures, risk factors or treatment.</t>
+  </si>
+  <si>
+    <t>A study may have multiple distinct outcome measures that can be used to assess the overall goal for a study. The goal of a study is in the objective whereas the metric by which the goal is assessed is the outcomeMeasure. Examples: Time to Local Recurrence (TLR), Disease-free Survival (DFS), 30 Day Mortality, Systolic BP</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure.modifierExtension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure.name</t>
+  </si>
+  <si>
+    <t>Label for the outcome</t>
+  </si>
+  <si>
+    <t>Label for the outcome.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure.type</t>
+  </si>
+  <si>
+    <t>The parameter or characteristic being assessed as one of the values by which the study is assessed.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure.description</t>
+  </si>
+  <si>
+    <t>Description of the outcome</t>
+  </si>
+  <si>
+    <t>Description of the outcome.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.outcomeMeasure.reference</t>
+  </si>
+  <si>
+    <t>Structured outcome definition</t>
+  </si>
+  <si>
+    <t>Structured outcome definition.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(EvidenceReport|Citation|DiagnosticReport)
 </t>
   </si>
   <si>
-    <t>Organization that initiates and is legally responsible for the study</t>
-  </si>
-  <si>
-    <t>An organization that initiates the investigation and is legally responsible for the study.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.principalInvestigator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
-</t>
-  </si>
-  <si>
-    <t>Researcher who oversees multiple aspects of the study</t>
-  </si>
-  <si>
-    <t>A researcher in a study who oversees multiple aspects of the study, such as concept development, protocol writing, protocol submission for IRB approval, participant recruitment, informed consent, data collection, analysis, interpretation and presentation.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Facility where study activities are conducted</t>
-  </si>
-  <si>
-    <t>A facility in which study activities are conducted.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.reasonStopped</t>
-  </si>
-  <si>
-    <t>accrual-goal-met | closed-due-to-toxicity | closed-due-to-lack-of-study-progress | temporarily-closed-per-study-design</t>
-  </si>
-  <si>
-    <t>A description and/or code explaining the premature termination of the study.</t>
-  </si>
-  <si>
-    <t>Codes for why the study ended prematurely.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-reason-stopped</t>
-  </si>
-  <si>
-    <t>ResearchStudy.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Comments made about the study</t>
-  </si>
-  <si>
-    <t>Comments made about the study by the performer, subject or other participants.</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Defined path through the study for a subject</t>
-  </si>
-  <si>
-    <t>Describes an expected sequence of events for one of the participants of a study.  E.g. Exposure to drug A, wash-out, exposure to drug B, wash-out, follow-up.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.name</t>
-  </si>
-  <si>
-    <t>Label for study arm</t>
-  </si>
-  <si>
-    <t>Unique, human-readable label for this arm of the study.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.type</t>
-  </si>
-  <si>
-    <t>Categorization of study arm</t>
-  </si>
-  <si>
-    <t>Categorization of study arm, e.g. experimental, active comparator, placebo comparater.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.arm.description</t>
-  </si>
-  <si>
-    <t>Short explanation of study path</t>
-  </si>
-  <si>
-    <t>A succinct description of the path through the study that would be followed by a subject adhering to this arm.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.objective</t>
-  </si>
-  <si>
-    <t>A goal for the study</t>
-  </si>
-  <si>
-    <t>A goal that the study is aiming to achieve in terms of a scientific question to be answered by the analysis of data collected during the study.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.objective.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.objective.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.objective.modifierExtension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.objective.name</t>
-  </si>
-  <si>
-    <t>Label for the objective</t>
-  </si>
-  <si>
-    <t>Unique, human-readable label for this objective of the study.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.objective.type</t>
-  </si>
-  <si>
-    <t>primary | secondary | exploratory</t>
-  </si>
-  <si>
-    <t>The kind of study objective.</t>
-  </si>
-  <si>
-    <t>Codes for the kind of study objective.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-objective-type</t>
+    <t>Link to results generated during the study</t>
+  </si>
+  <si>
+    <t>Link to one or more sets of results generated by the study.  Could also link to a research registry holding the results such as ClinicalTrials.gov.</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK45"/>
+  <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1241,8 +1595,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="20.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.0234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="41.0234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="49.0234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="49.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1266,13 +1620,13 @@
     <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="124.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="54.97265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="62.34375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="49.0234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
@@ -1697,10 +2051,10 @@
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +2062,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1734,16 +2088,16 @@
         <v>82</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -1793,7 +2147,7 @@
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
@@ -1802,10 +2156,10 @@
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +2167,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -1839,16 +2193,16 @@
         <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -1874,31 +2228,31 @@
         <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1907,10 +2261,10 @@
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -1918,14 +2272,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -1944,16 +2298,16 @@
         <v>75</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>115</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2003,7 +2357,7 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>73</v>
@@ -2012,10 +2366,10 @@
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2117,7 +2471,7 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>75</v>
@@ -2128,14 +2482,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2154,16 +2508,16 @@
         <v>75</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2201,19 +2555,19 @@
         <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -2222,10 +2576,10 @@
         <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
@@ -2233,14 +2587,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2256,22 +2610,22 @@
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>75</v>
@@ -2308,19 +2662,19 @@
         <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>73</v>
@@ -2329,10 +2683,10 @@
         <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
@@ -2340,10 +2694,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2351,7 +2705,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -2363,21 +2717,19 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" t="s" s="2">
-        <v>144</v>
-      </c>
+      <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
         <v>75</v>
       </c>
@@ -2425,19 +2777,19 @@
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="12">
@@ -2445,10 +2797,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2456,7 +2808,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -2471,18 +2823,18 @@
         <v>82</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="P12" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="Q12" t="s" s="2">
         <v>75</v>
       </c>
@@ -2530,19 +2882,19 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -2550,10 +2902,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2564,7 +2916,7 @@
         <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>75</v>
@@ -2573,20 +2925,18 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>75</v>
@@ -2635,19 +2985,19 @@
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="14">
@@ -2655,21 +3005,21 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>75</v>
@@ -2678,23 +3028,19 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="P14" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2742,19 +3088,19 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -2762,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2773,7 +3119,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -2782,23 +3128,21 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>75</v>
@@ -2823,13 +3167,13 @@
         <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>75</v>
@@ -2847,19 +3191,19 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -2867,10 +3211,10 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2881,7 +3225,7 @@
         <v>73</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
@@ -2890,20 +3234,18 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>75</v>
@@ -2928,13 +3270,13 @@
         <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>75</v>
@@ -2952,19 +3294,19 @@
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="17">
@@ -2972,10 +3314,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2995,20 +3337,18 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>75</v>
@@ -3033,13 +3373,13 @@
         <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
         <v>75</v>
@@ -3057,7 +3397,7 @@
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -3066,10 +3406,10 @@
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -3077,14 +3417,14 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
@@ -3100,19 +3440,19 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3138,10 +3478,10 @@
         <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
@@ -3162,7 +3502,7 @@
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>73</v>
@@ -3171,10 +3511,10 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
@@ -3182,14 +3522,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -3202,24 +3542,26 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="Q19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3243,10 +3585,10 @@
         <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3267,7 +3609,7 @@
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>73</v>
@@ -3276,10 +3618,10 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>94</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20">
@@ -3287,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3301,7 +3643,7 @@
         <v>73</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
@@ -3310,20 +3652,18 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>75</v>
@@ -3348,14 +3688,14 @@
         <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AA20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AB20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3372,19 +3712,19 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -3392,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3406,7 +3746,7 @@
         <v>73</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>75</v>
@@ -3415,16 +3755,16 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -3475,19 +3815,19 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -3495,10 +3835,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3518,20 +3858,18 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>75</v>
@@ -3580,7 +3918,7 @@
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>73</v>
@@ -3589,10 +3927,10 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -3600,14 +3938,14 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>188</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
@@ -3626,18 +3964,18 @@
         <v>82</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="P23" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="Q23" t="s" s="2">
         <v>75</v>
       </c>
@@ -3661,10 +3999,10 @@
         <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>75</v>
@@ -3685,7 +4023,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3694,10 +4032,10 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -3705,10 +4043,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3728,20 +4066,18 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>75</v>
@@ -3766,13 +4102,13 @@
         <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>75</v>
@@ -3790,7 +4126,7 @@
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>73</v>
@@ -3799,10 +4135,10 @@
         <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -3810,10 +4146,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3836,17 +4172,15 @@
         <v>75</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>75</v>
@@ -3895,7 +4229,7 @@
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>73</v>
@@ -3904,10 +4238,10 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -3915,43 +4249,41 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>101</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>75</v>
@@ -3976,13 +4308,13 @@
         <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>75</v>
@@ -4000,19 +4332,19 @@
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="27">
@@ -4020,14 +4352,14 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
@@ -4046,17 +4378,15 @@
         <v>82</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>75</v>
@@ -4081,13 +4411,13 @@
         <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>75</v>
@@ -4105,7 +4435,7 @@
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -4114,10 +4444,10 @@
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -4125,10 +4455,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4151,17 +4481,15 @@
         <v>82</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
         <v>75</v>
@@ -4186,13 +4514,13 @@
         <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>75</v>
@@ -4210,7 +4538,7 @@
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
@@ -4219,10 +4547,10 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="29">
@@ -4230,10 +4558,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4244,7 +4572,7 @@
         <v>73</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>75</v>
@@ -4256,17 +4584,15 @@
         <v>82</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>75</v>
@@ -4291,13 +4617,13 @@
         <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="AB29" t="s" s="2">
         <v>75</v>
@@ -4315,19 +4641,19 @@
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="30">
@@ -4335,10 +4661,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4358,20 +4684,18 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>75</v>
@@ -4396,13 +4720,13 @@
         <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="AB30" t="s" s="2">
         <v>75</v>
@@ -4420,7 +4744,7 @@
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>73</v>
@@ -4429,10 +4753,10 @@
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>155</v>
       </c>
     </row>
     <row r="31">
@@ -4440,10 +4764,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4454,7 +4778,7 @@
         <v>73</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>75</v>
@@ -4466,17 +4790,15 @@
         <v>82</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>75</v>
@@ -4501,13 +4823,13 @@
         <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>75</v>
@@ -4525,19 +4847,19 @@
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -4545,10 +4867,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4568,20 +4890,18 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
         <v>75</v>
@@ -4606,10 +4926,10 @@
         <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4630,7 +4950,7 @@
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>73</v>
@@ -4639,10 +4959,10 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -4650,10 +4970,10 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4673,16 +4993,16 @@
         <v>75</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -4709,13 +5029,13 @@
         <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>75</v>
+        <v>242</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>75</v>
@@ -4733,7 +5053,7 @@
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>73</v>
@@ -4742,10 +5062,10 @@
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -4753,10 +5073,10 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4779,13 +5099,13 @@
         <v>75</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -4836,7 +5156,7 @@
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4848,7 +5168,7 @@
         <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -4856,21 +5176,21 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>75</v>
@@ -4882,17 +5202,15 @@
         <v>75</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>75</v>
@@ -4929,31 +5247,31 @@
         <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -4961,46 +5279,42 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P36" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5048,19 +5362,19 @@
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -5068,10 +5382,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5079,10 +5393,10 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>75</v>
@@ -5091,20 +5405,18 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>146</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>75</v>
@@ -5153,19 +5465,19 @@
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5173,10 +5485,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5187,7 +5499,7 @@
         <v>73</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
@@ -5199,17 +5511,15 @@
         <v>75</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
         <v>75</v>
@@ -5258,19 +5568,19 @@
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -5278,10 +5588,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5292,7 +5602,7 @@
         <v>73</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>75</v>
@@ -5304,17 +5614,15 @@
         <v>75</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
         <v>75</v>
@@ -5339,13 +5647,13 @@
         <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>75</v>
@@ -5363,19 +5671,19 @@
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -5383,10 +5691,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5409,16 +5717,20 @@
         <v>75</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="Q40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5466,7 +5778,7 @@
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>73</v>
@@ -5475,10 +5787,10 @@
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="41">
@@ -5486,10 +5798,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5512,13 +5824,13 @@
         <v>75</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>161</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -5569,7 +5881,7 @@
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5578,7 +5890,7 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>75</v>
@@ -5589,14 +5901,14 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -5615,16 +5927,16 @@
         <v>75</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5662,19 +5974,19 @@
         <v>75</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>73</v>
@@ -5683,10 +5995,10 @@
         <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43">
@@ -5694,14 +6006,14 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" t="s" s="2">
@@ -5720,19 +6032,19 @@
         <v>82</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>266</v>
+        <v>170</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>267</v>
+        <v>171</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>75</v>
@@ -5781,7 +6093,7 @@
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>268</v>
+        <v>172</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>73</v>
@@ -5790,10 +6102,10 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44">
@@ -5801,10 +6113,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -5827,17 +6139,15 @@
         <v>75</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>75</v>
@@ -5886,7 +6196,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>73</v>
@@ -5895,10 +6205,10 @@
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>94</v>
       </c>
     </row>
     <row r="45">
@@ -5906,10 +6216,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5917,7 +6227,7 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -5932,17 +6242,15 @@
         <v>75</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
         <v>75</v>
@@ -5967,13 +6275,13 @@
         <v>75</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>290</v>
+        <v>178</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>75</v>
@@ -5991,19 +6299,4696 @@
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>94</v>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R46" s="2"/>
+      <c r="S46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R57" s="2"/>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R59" s="2"/>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R60" s="2"/>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R61" s="2"/>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R62" s="2"/>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R64" s="2"/>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R71" s="2"/>
+      <c r="S71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R72" s="2"/>
+      <c r="S72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Q73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R73" s="2"/>
+      <c r="S73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Q74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R74" s="2"/>
+      <c r="S74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R75" s="2"/>
+      <c r="S75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R76" s="2"/>
+      <c r="S76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R77" s="2"/>
+      <c r="S77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R78" s="2"/>
+      <c r="S78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R79" s="2"/>
+      <c r="S79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R80" s="2"/>
+      <c r="S80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R81" s="2"/>
+      <c r="S81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R82" s="2"/>
+      <c r="S82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R83" s="2"/>
+      <c r="S83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R84" s="2"/>
+      <c r="S84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="Q85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R85" s="2"/>
+      <c r="S85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R86" s="2"/>
+      <c r="S86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F87" s="2"/>
+      <c r="G87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R87" s="2"/>
+      <c r="S87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R88" s="2"/>
+      <c r="S88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R89" s="2"/>
+      <c r="S89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="R90" s="2"/>
+      <c r="S90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T15:48:54+00:00</t>
+    <t>2023-04-21T15:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T07:57:03+00:00</t>
+    <t>2023-06-22T08:05:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T08:05:23+00:00</t>
+    <t>2023-06-23T21:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-23T21:06:16+00:00</t>
+    <t>2023-06-26T12:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:51:11+00:00</t>
+    <t>2023-06-28T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-28T07:21:29+00:00</t>
+    <t>2023-06-29T16:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif/all-profiles.xlsx
+++ b/ig/contenu_narratif/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-29T16:03:33+00:00</t>
+    <t>2023-06-30T09:03:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
